--- a/reports/DSRReport/DSR_Report.xlsx
+++ b/reports/DSRReport/DSR_Report.xlsx
@@ -5,25 +5,442 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Daily sales report" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily Sales Report" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Daily Sales Report - Club Marriott                                                                    JW Marriott Hotel New Delhi Aerocity</t>
   </si>
   <si>
     <t>MON 14/12/2020 8:30 AM</t>
+  </si>
+  <si>
+    <t>S.N.</t>
+  </si>
+  <si>
+    <t>Member Name</t>
+  </si>
+  <si>
+    <t>Membership Number</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Type (N/R)</t>
+  </si>
+  <si>
+    <t>Enrollment/Renewal Date</t>
+  </si>
+  <si>
+    <t>Valid Till</t>
+  </si>
+  <si>
+    <t>Promo code</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Online Transaction</t>
+  </si>
+  <si>
+    <t>CC Approval Code</t>
+  </si>
+  <si>
+    <t>CC Batch Number</t>
+  </si>
+  <si>
+    <t>Cash Recept  No.</t>
+  </si>
+  <si>
+    <t>Chq Details</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>test test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>16 Oct 2020</t>
+  </si>
+  <si>
+    <t>31 Dec 2021</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>0680769</t>
+  </si>
+  <si>
+    <t>PAY-058961</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Test Guest</t>
+  </si>
+  <si>
+    <t>30 Jan 2022</t>
+  </si>
+  <si>
+    <t>Hotel Transfer</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Stuti Singh</t>
+  </si>
+  <si>
+    <t>3662460</t>
+  </si>
+  <si>
+    <t>PAY-058964</t>
+  </si>
+  <si>
+    <t>Success Test Bank Transaction.</t>
+  </si>
+  <si>
+    <t>Pras Hant</t>
+  </si>
+  <si>
+    <t>1292307</t>
+  </si>
+  <si>
+    <t>PAY-058967</t>
+  </si>
+  <si>
+    <t>Abhishek Tripati</t>
+  </si>
+  <si>
+    <t>22 Oct 2020</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>New User</t>
+  </si>
+  <si>
+    <t>31 Oct 2021</t>
+  </si>
+  <si>
+    <t>1828935</t>
+  </si>
+  <si>
+    <t>PAY-058982</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>2599806</t>
+  </si>
+  <si>
+    <t>PAY-058983</t>
+  </si>
+  <si>
+    <t>Test Member</t>
+  </si>
+  <si>
+    <t>Dinesh Primary</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>Mritunjay Kumar</t>
+  </si>
+  <si>
+    <t>www33</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>sdf sf</t>
+  </si>
+  <si>
+    <t>23 Oct 2020</t>
+  </si>
+  <si>
+    <t>Complimentary</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>Mrinal Tripathii</t>
+  </si>
+  <si>
+    <t>24 Oct 2020</t>
+  </si>
+  <si>
+    <t>Mpesa</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>awda</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>sff</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>27 Oct 2020</t>
+  </si>
+  <si>
+    <t>8082445</t>
+  </si>
+  <si>
+    <t>PAY-059022</t>
+  </si>
+  <si>
+    <t>Kushal Chandel</t>
+  </si>
+  <si>
+    <t>3782360</t>
+  </si>
+  <si>
+    <t>PAY-059023</t>
+  </si>
+  <si>
+    <t>3259109</t>
+  </si>
+  <si>
+    <t>PAY-059027</t>
+  </si>
+  <si>
+    <t>3896655</t>
+  </si>
+  <si>
+    <t>PAY-059026</t>
+  </si>
+  <si>
+    <t>Summary by Payment Mode </t>
+  </si>
+  <si>
+    <t>Sl. No</t>
+  </si>
+  <si>
+    <t>No. of Enrolments</t>
+  </si>
+  <si>
+    <t>Net Revenue</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>TLC Online Payment Gateway</t>
+  </si>
+  <si>
+    <t>Other Payment Gateway</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Break-up of Enrolments</t>
+  </si>
+  <si>
+    <t>New (N)</t>
+  </si>
+  <si>
+    <t>Renewal (R)</t>
+  </si>
+  <si>
+    <t>Cancellation (C)</t>
+  </si>
+  <si>
+    <t>Total (N+R-C)</t>
+  </si>
+  <si>
+    <t>Summary by Levels</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Sub Total of Paid Enrolments</t>
+  </si>
+  <si>
+    <t>Spouse Complimentary</t>
+  </si>
+  <si>
+    <t>Other Complimentary (Include Referrals)</t>
+  </si>
+  <si>
+    <t>Reissue (INR 500)</t>
+  </si>
+  <si>
+    <t>Wedding Bundling</t>
+  </si>
+  <si>
+    <t>Annexure – 1 Certificate Numbers Issued for Audit purpose</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Certificate Number Issued</t>
+  </si>
+  <si>
+    <t>20-Dec-20</t>
+  </si>
+  <si>
+    <t>Credit Card Batch Closure</t>
+  </si>
+  <si>
+    <t>Document Reference Number</t>
+  </si>
+  <si>
+    <t>This is an auto generated Daily Sales Report of &lt; Program Name&gt;.   Please do not reply to this email and contact the Program management team for any questions.  Explanations and Definitions are given below.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Member Name – The full name of the Member</t>
+  </si>
+  <si>
+    <t>Membership Number – A Nine-digit unique number for every membership</t>
+  </si>
+  <si>
+    <t>Level-  Membership Type name</t>
+  </si>
+  <si>
+    <t>Type – New or Renewal Membership. N for New and R for Renewal</t>
+  </si>
+  <si>
+    <t>Enrolment Date – The date when the membership was enrolled or renewed</t>
+  </si>
+  <si>
+    <t>Valid Till – The date when the membership expires</t>
+  </si>
+  <si>
+    <t>Promo code - Promocode to avail extra benefit</t>
+  </si>
+  <si>
+    <t>Payment Mode – The mode of payment through which a member pays the membership amount</t>
+  </si>
+  <si>
+    <t>Online Transaction No. – A unique transaction number to identify a membership (Not the UTR number)</t>
+  </si>
+  <si>
+    <t>CC Approval Code – An approval code that appears on the charge slip that gets printed from a credit/debit card charging machine</t>
+  </si>
+  <si>
+    <t>CC Batch Number – Batch Number that appears on the charge slips that gets printed from a credit/debit card charging machine</t>
+  </si>
+  <si>
+    <t>Cash Receipt Number – The number that appears on a Cash receipt issued by the hotel/program</t>
+  </si>
+  <si>
+    <t>Cheque Details – Cheque number, Bank Name and Deposit Date</t>
+  </si>
+  <si>
+    <t>Amount – Net Amount without Tax</t>
+  </si>
+  <si>
+    <t>Tax – Goods and Services Tax</t>
+  </si>
+  <si>
+    <t>Total Amount – The amount that the member has paid</t>
+  </si>
+  <si>
+    <t>GSTIN – The GST number that the member has provided</t>
+  </si>
+  <si>
+    <t>State Code – Two-digit code that appears before the PAN number in a GSTIN provided</t>
+  </si>
+  <si>
+    <t>Remarks – Comments entered by the person enrolling a membership in the TLC CRM</t>
+  </si>
+  <si>
+    <t>Certificate Number – The number printed on the back of a physical voucher or on a digital certificate.  This can be used by the Audit teams to reconcile any used certificate</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>While we have taken every precaution to ensure that the data presented here is accurate, errors and omissions may occur.  TLC is not responsible for any errors or omissions, or for the results obtained from the use of this information. This information has no guarantee of completeness, accuracy, timeliness or of the results obtained from the use of this information..."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -32,14 +449,27 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -53,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,14 +491,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -114,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -210,10 +662,2526 @@
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
     </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>102283146</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>108537157</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>-900.18</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>-162.04</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>-1062.22</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>109419362</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>106704956</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>107961358</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>274063782</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>14200</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>1988</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>16188</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>274274338</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>270484578</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>14200</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1988</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>16188</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>106127142</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>106415416</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>100261943</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>103716562</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>105378074</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>105733585</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>107763136</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>101646406</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>104171393</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>107124863</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>104847032</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>276606524</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>14200</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>1988</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>16188</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
+      <c r="B80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="B83" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" spans="2:23">
+      <c r="B85" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="B86" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="B87" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="B88" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+    </row>
+    <row r="89" spans="2:23">
+      <c r="B89" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+    </row>
+    <row r="90" spans="2:23">
+      <c r="B90" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" spans="2:23">
+      <c r="B91" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+    </row>
+    <row r="92" spans="2:23">
+      <c r="B92" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+    </row>
+    <row r="93" spans="2:23">
+      <c r="B93" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+    </row>
+    <row r="94" spans="2:23">
+      <c r="B94" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="B95" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="B96" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="35">
     <mergeCell ref="B3:U5"/>
     <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B80:U80"/>
+    <mergeCell ref="C81:W81"/>
+    <mergeCell ref="C82:W82"/>
+    <mergeCell ref="C83:W83"/>
+    <mergeCell ref="C84:W84"/>
+    <mergeCell ref="C85:W85"/>
+    <mergeCell ref="C86:W86"/>
+    <mergeCell ref="C87:W87"/>
+    <mergeCell ref="C88:W88"/>
+    <mergeCell ref="C89:W89"/>
+    <mergeCell ref="C90:W90"/>
+    <mergeCell ref="C91:W91"/>
+    <mergeCell ref="C92:W92"/>
+    <mergeCell ref="C93:W93"/>
+    <mergeCell ref="C94:W94"/>
+    <mergeCell ref="C95:W95"/>
+    <mergeCell ref="C96:W96"/>
+    <mergeCell ref="C97:W97"/>
+    <mergeCell ref="C98:W98"/>
+    <mergeCell ref="C99:W99"/>
+    <mergeCell ref="C100:W100"/>
+    <mergeCell ref="C101:W101"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:L106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
